--- a/xlFRED.xlsx
+++ b/xlFRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlFRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B9B1ED-20CD-47F4-86A9-C161CF015B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56522D37-ED75-4A94-87EB-1AC73670F699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{3993A6B1-EE0B-4D1E-870C-DA6DB50BA0B2}"/>
   </bookViews>
@@ -129,11 +129,25 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
@@ -143,16 +157,22 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>eop</t>
   </si>
@@ -432,6 +452,15 @@
   <si>
     <t>xlFRED v. 0.1</t>
   </si>
+  <si>
+    <t>q, avg</t>
+  </si>
+  <si>
+    <t>How can I use xlFRED functions in my own workbook?</t>
+  </si>
+  <si>
+    <t>Just copy the yellow cells below to anywhere in your workbook! Then, you can delete them. Functions will become available there!</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,8 +559,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -608,7 +651,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -672,6 +715,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1099,277 +1144,277 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>824</c:v>
+                  <c:v>769.99999999998545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465</c:v>
+                  <c:v>776.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>356</c:v>
+                  <c:v>265.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-448</c:v>
+                  <c:v>-354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-528</c:v>
+                  <c:v>-398.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-789</c:v>
+                  <c:v>-799.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-265</c:v>
+                  <c:v>-424.33333333332848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-33</c:v>
+                  <c:v>-121.33333333332848</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-183</c:v>
+                  <c:v>-87.666666666671517</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-29</c:v>
+                  <c:v>12.333333333343035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-240</c:v>
+                  <c:v>-153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-38</c:v>
+                  <c:v>-229.66666666667152</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>334</c:v>
+                  <c:v>307.33333333332848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>554</c:v>
+                  <c:v>406.66666666667152</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>651</c:v>
+                  <c:v>720.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300</c:v>
+                  <c:v>326.66666666668607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>531</c:v>
+                  <c:v>565.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>532</c:v>
+                  <c:v>462.66666666668607</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>786</c:v>
+                  <c:v>729.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>624</c:v>
+                  <c:v>736.66666666668607</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>583</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>898</c:v>
+                  <c:v>805.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>278</c:v>
+                  <c:v>520.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>518</c:v>
+                  <c:v>427.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>406</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>544</c:v>
+                  <c:v>554.66666666668607</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>276</c:v>
+                  <c:v>358.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26</c:v>
+                  <c:v>81.333333333343035</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>297</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-117</c:v>
+                  <c:v>50.666666666656965</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-588</c:v>
+                  <c:v>-474</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-934</c:v>
+                  <c:v>-707.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1914</c:v>
+                  <c:v>-1600.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2327</c:v>
+                  <c:v>-2259</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1504</c:v>
+                  <c:v>-1859.666666666657</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-764</c:v>
+                  <c:v>-967.66666666667152</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-456</c:v>
+                  <c:v>-502.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>91</c:v>
+                  <c:v>-174.33333333332848</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>632</c:v>
+                  <c:v>634.66666666667152</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-154</c:v>
+                  <c:v>-21.666666666671517</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>465</c:v>
+                  <c:v>330.33333333332848</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>466</c:v>
+                  <c:v>328.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>651</c:v>
+                  <c:v>687.33333333332848</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>419</c:v>
+                  <c:v>412.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>538</c:v>
+                  <c:v>556.66666666668607</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>856</c:v>
+                  <c:v>787.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>255</c:v>
+                  <c:v>420.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>511</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>554</c:v>
+                  <c:v>524.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>608</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>594</c:v>
+                  <c:v>584.66666666668607</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>541</c:v>
+                  <c:v>530.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>558</c:v>
+                  <c:v>629.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>595</c:v>
+                  <c:v>504.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>869</c:v>
+                  <c:v>803.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>729</c:v>
+                  <c:v>750.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>811</c:v>
+                  <c:v>804</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>533</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>789</c:v>
+                  <c:v>700.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>582</c:v>
+                  <c:v>663.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>816</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>557</c:v>
+                  <c:v>589.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>496</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>803</c:v>
+                  <c:v>748.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>462</c:v>
+                  <c:v>516.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>545</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>625</c:v>
+                  <c:v>577.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>427</c:v>
+                  <c:v>518.33333333331393</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>517</c:v>
+                  <c:v>447.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>760</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>695</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>342</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>495</c:v>
+                  <c:v>406.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>527</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>495</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>401</c:v>
+                  <c:v>351.33333333334303</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>545</c:v>
+                  <c:v>489.66666666665697</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-783</c:v>
+                  <c:v>307.66666666668607</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-13346</c:v>
+                  <c:v>-18103.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3972</c:v>
+                  <c:v>6688.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>865</c:v>
+                  <c:v>1998.3333333333139</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1934</c:v>
+                  <c:v>1262.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1267</c:v>
+                  <c:v>1452.666666666657</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1630</c:v>
+                  <c:v>1695.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1912</c:v>
+                  <c:v>1759.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1616</c:v>
+                  <c:v>1720.3333333333139</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1047</c:v>
+                  <c:v>1226.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1098</c:v>
+                  <c:v>1145.333333333343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3399,8 +3444,18 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
+    <v>2</v>
+    <v>6</v>
+    <v>19</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>2</v>
+    <v>19</v>
+  </rv>
+  <rv s="1">
     <v>1</v>
     <v>8</v>
     <v>1</v>
@@ -3410,7 +3465,12 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="argument" t="s"/>
+    <k n="subType" t="i"/>
+  </s>
   <s t="_error">
     <k n="colOffset" t="i"/>
     <k n="errorType" t="i"/>
@@ -3794,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6B57B2-5560-4EEE-8070-272E63D2DE4D}">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,6 +3912,34 @@
         <v>Fetch the metadata of a time series from the FRED database.</v>
       </c>
     </row>
+    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="33" t="e" cm="1" vm="1">
+        <f t="array" ref="C14">FRED()</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="33" t="e" cm="1" vm="2">
+        <f t="array" ref="C15">FREDMETA()</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3862,7 +3950,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,7 +4174,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -4278,14 +4366,14 @@
         <v>36526</v>
       </c>
       <c r="F20" s="1">
-        <v>824</v>
+        <v>769.99999999998545</v>
       </c>
       <c r="H20" s="2" cm="1">
         <f t="array" ref="H20:I110">FRED($C$13,$C$14,$C$15,$C$16,$C$17)</f>
         <v>36526</v>
       </c>
       <c r="I20" s="1">
-        <v>824</v>
+        <v>769.99999999998545</v>
       </c>
       <c r="R20" s="4"/>
     </row>
@@ -4294,13 +4382,13 @@
         <v>36617</v>
       </c>
       <c r="F21" s="1">
-        <v>465</v>
+        <v>776.33333333334303</v>
       </c>
       <c r="H21" s="13">
         <v>36617</v>
       </c>
       <c r="I21" s="22">
-        <v>465</v>
+        <v>776.33333333334303</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -4308,13 +4396,13 @@
         <v>36708</v>
       </c>
       <c r="F22" s="1">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="H22" s="13">
         <v>36708</v>
       </c>
       <c r="I22" s="22">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -4322,13 +4410,13 @@
         <v>36800</v>
       </c>
       <c r="F23" s="1">
-        <v>356</v>
+        <v>265.66666666665697</v>
       </c>
       <c r="H23" s="13">
         <v>36800</v>
       </c>
       <c r="I23" s="22">
-        <v>356</v>
+        <v>265.66666666665697</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -4336,13 +4424,13 @@
         <v>36892</v>
       </c>
       <c r="F24" s="1">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="H24" s="13">
         <v>36892</v>
       </c>
       <c r="I24" s="22">
-        <v>38</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -4350,13 +4438,13 @@
         <v>36982</v>
       </c>
       <c r="F25" s="1">
-        <v>-448</v>
+        <v>-354</v>
       </c>
       <c r="H25" s="13">
         <v>36982</v>
       </c>
       <c r="I25" s="22">
-        <v>-448</v>
+        <v>-354</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -4364,13 +4452,13 @@
         <v>37073</v>
       </c>
       <c r="F26" s="1">
-        <v>-528</v>
+        <v>-398.66666666665697</v>
       </c>
       <c r="H26" s="13">
         <v>37073</v>
       </c>
       <c r="I26" s="22">
-        <v>-528</v>
+        <v>-398.66666666665697</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -4378,13 +4466,13 @@
         <v>37165</v>
       </c>
       <c r="F27" s="1">
-        <v>-789</v>
+        <v>-799.33333333334303</v>
       </c>
       <c r="H27" s="13">
         <v>37165</v>
       </c>
       <c r="I27" s="22">
-        <v>-789</v>
+        <v>-799.33333333334303</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -4392,13 +4480,13 @@
         <v>37257</v>
       </c>
       <c r="F28" s="1">
-        <v>-265</v>
+        <v>-424.33333333332848</v>
       </c>
       <c r="H28" s="13">
         <v>37257</v>
       </c>
       <c r="I28" s="22">
-        <v>-265</v>
+        <v>-424.33333333332848</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -4406,13 +4494,13 @@
         <v>37347</v>
       </c>
       <c r="F29" s="1">
-        <v>-33</v>
+        <v>-121.33333333332848</v>
       </c>
       <c r="H29" s="13">
         <v>37347</v>
       </c>
       <c r="I29" s="22">
-        <v>-33</v>
+        <v>-121.33333333332848</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -4420,13 +4508,13 @@
         <v>37438</v>
       </c>
       <c r="F30" s="1">
-        <v>-183</v>
+        <v>-87.666666666671517</v>
       </c>
       <c r="H30" s="13">
         <v>37438</v>
       </c>
       <c r="I30" s="22">
-        <v>-183</v>
+        <v>-87.666666666671517</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -4434,13 +4522,13 @@
         <v>37530</v>
       </c>
       <c r="F31" s="1">
-        <v>-29</v>
+        <v>12.333333333343035</v>
       </c>
       <c r="H31" s="13">
         <v>37530</v>
       </c>
       <c r="I31" s="22">
-        <v>-29</v>
+        <v>12.333333333343035</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -4448,13 +4536,13 @@
         <v>37622</v>
       </c>
       <c r="F32" s="1">
-        <v>-240</v>
+        <v>-153</v>
       </c>
       <c r="H32" s="13">
         <v>37622</v>
       </c>
       <c r="I32" s="22">
-        <v>-240</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
@@ -4462,13 +4550,13 @@
         <v>37712</v>
       </c>
       <c r="F33" s="1">
-        <v>-38</v>
+        <v>-229.66666666667152</v>
       </c>
       <c r="H33" s="13">
         <v>37712</v>
       </c>
       <c r="I33" s="22">
-        <v>-38</v>
+        <v>-229.66666666667152</v>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
@@ -4476,13 +4564,13 @@
         <v>37803</v>
       </c>
       <c r="F34" s="1">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H34" s="13">
         <v>37803</v>
       </c>
       <c r="I34" s="22">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
@@ -4490,13 +4578,13 @@
         <v>37895</v>
       </c>
       <c r="F35" s="1">
-        <v>334</v>
+        <v>307.33333333332848</v>
       </c>
       <c r="H35" s="13">
         <v>37895</v>
       </c>
       <c r="I35" s="22">
-        <v>334</v>
+        <v>307.33333333332848</v>
       </c>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
@@ -4504,13 +4592,13 @@
         <v>37987</v>
       </c>
       <c r="F36" s="1">
-        <v>554</v>
+        <v>406.66666666667152</v>
       </c>
       <c r="H36" s="13">
         <v>37987</v>
       </c>
       <c r="I36" s="22">
-        <v>554</v>
+        <v>406.66666666667152</v>
       </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
@@ -4518,13 +4606,13 @@
         <v>38078</v>
       </c>
       <c r="F37" s="1">
-        <v>651</v>
+        <v>720.66666666665697</v>
       </c>
       <c r="H37" s="13">
         <v>38078</v>
       </c>
       <c r="I37" s="22">
-        <v>651</v>
+        <v>720.66666666665697</v>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
@@ -4532,13 +4620,13 @@
         <v>38169</v>
       </c>
       <c r="F38" s="1">
-        <v>300</v>
+        <v>326.66666666668607</v>
       </c>
       <c r="H38" s="13">
         <v>38169</v>
       </c>
       <c r="I38" s="22">
-        <v>300</v>
+        <v>326.66666666668607</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
@@ -4546,13 +4634,13 @@
         <v>38261</v>
       </c>
       <c r="F39" s="1">
-        <v>531</v>
+        <v>565.33333333331393</v>
       </c>
       <c r="H39" s="13">
         <v>38261</v>
       </c>
       <c r="I39" s="22">
-        <v>531</v>
+        <v>565.33333333331393</v>
       </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
@@ -4560,13 +4648,13 @@
         <v>38353</v>
       </c>
       <c r="F40" s="1">
-        <v>532</v>
+        <v>462.66666666668607</v>
       </c>
       <c r="H40" s="13">
         <v>38353</v>
       </c>
       <c r="I40" s="22">
-        <v>532</v>
+        <v>462.66666666668607</v>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
@@ -4574,13 +4662,13 @@
         <v>38443</v>
       </c>
       <c r="F41" s="1">
-        <v>786</v>
+        <v>729.33333333331393</v>
       </c>
       <c r="H41" s="13">
         <v>38443</v>
       </c>
       <c r="I41" s="22">
-        <v>786</v>
+        <v>729.33333333331393</v>
       </c>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.25">
@@ -4588,13 +4676,13 @@
         <v>38534</v>
       </c>
       <c r="F42" s="1">
-        <v>624</v>
+        <v>736.66666666668607</v>
       </c>
       <c r="H42" s="13">
         <v>38534</v>
       </c>
       <c r="I42" s="22">
-        <v>624</v>
+        <v>736.66666666668607</v>
       </c>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
@@ -4602,13 +4690,13 @@
         <v>38626</v>
       </c>
       <c r="F43" s="1">
-        <v>583</v>
+        <v>479</v>
       </c>
       <c r="H43" s="13">
         <v>38626</v>
       </c>
       <c r="I43" s="22">
-        <v>583</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
@@ -4616,13 +4704,13 @@
         <v>38718</v>
       </c>
       <c r="F44" s="1">
-        <v>898</v>
+        <v>805.33333333331393</v>
       </c>
       <c r="H44" s="13">
         <v>38718</v>
       </c>
       <c r="I44" s="22">
-        <v>898</v>
+        <v>805.33333333331393</v>
       </c>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.25">
@@ -4630,13 +4718,13 @@
         <v>38808</v>
       </c>
       <c r="F45" s="1">
-        <v>278</v>
+        <v>520.33333333334303</v>
       </c>
       <c r="H45" s="13">
         <v>38808</v>
       </c>
       <c r="I45" s="22">
-        <v>278</v>
+        <v>520.33333333334303</v>
       </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.25">
@@ -4644,13 +4732,13 @@
         <v>38899</v>
       </c>
       <c r="F46" s="1">
-        <v>518</v>
+        <v>427.66666666665697</v>
       </c>
       <c r="H46" s="13">
         <v>38899</v>
       </c>
       <c r="I46" s="22">
-        <v>518</v>
+        <v>427.66666666665697</v>
       </c>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.25">
@@ -4658,13 +4746,13 @@
         <v>38991</v>
       </c>
       <c r="F47" s="1">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="H47" s="13">
         <v>38991</v>
       </c>
       <c r="I47" s="22">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.25">
@@ -4672,13 +4760,13 @@
         <v>39083</v>
       </c>
       <c r="F48" s="1">
-        <v>544</v>
+        <v>554.66666666668607</v>
       </c>
       <c r="H48" s="13">
         <v>39083</v>
       </c>
       <c r="I48" s="22">
-        <v>544</v>
+        <v>554.66666666668607</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
@@ -4686,13 +4774,13 @@
         <v>39173</v>
       </c>
       <c r="F49" s="1">
-        <v>276</v>
+        <v>358.66666666665697</v>
       </c>
       <c r="H49" s="13">
         <v>39173</v>
       </c>
       <c r="I49" s="22">
-        <v>276</v>
+        <v>358.66666666665697</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
@@ -4700,13 +4788,13 @@
         <v>39264</v>
       </c>
       <c r="F50" s="1">
-        <v>26</v>
+        <v>81.333333333343035</v>
       </c>
       <c r="H50" s="13">
         <v>39264</v>
       </c>
       <c r="I50" s="22">
-        <v>26</v>
+        <v>81.333333333343035</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
@@ -4714,13 +4802,13 @@
         <v>39356</v>
       </c>
       <c r="F51" s="1">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="H51" s="13">
         <v>39356</v>
       </c>
       <c r="I51" s="22">
-        <v>297</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
@@ -4728,13 +4816,13 @@
         <v>39448</v>
       </c>
       <c r="F52" s="1">
-        <v>-117</v>
+        <v>50.666666666656965</v>
       </c>
       <c r="H52" s="13">
         <v>39448</v>
       </c>
       <c r="I52" s="22">
-        <v>-117</v>
+        <v>50.666666666656965</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
@@ -4742,13 +4830,13 @@
         <v>39539</v>
       </c>
       <c r="F53" s="1">
-        <v>-588</v>
+        <v>-474</v>
       </c>
       <c r="H53" s="13">
         <v>39539</v>
       </c>
       <c r="I53" s="22">
-        <v>-588</v>
+        <v>-474</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
@@ -4756,13 +4844,13 @@
         <v>39630</v>
       </c>
       <c r="F54" s="1">
-        <v>-934</v>
+        <v>-707.66666666665697</v>
       </c>
       <c r="H54" s="13">
         <v>39630</v>
       </c>
       <c r="I54" s="22">
-        <v>-934</v>
+        <v>-707.66666666665697</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
@@ -4770,13 +4858,13 @@
         <v>39722</v>
       </c>
       <c r="F55" s="1">
-        <v>-1914</v>
+        <v>-1600.333333333343</v>
       </c>
       <c r="H55" s="13">
         <v>39722</v>
       </c>
       <c r="I55" s="22">
-        <v>-1914</v>
+        <v>-1600.333333333343</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
@@ -4784,13 +4872,13 @@
         <v>39814</v>
       </c>
       <c r="F56" s="1">
-        <v>-2327</v>
+        <v>-2259</v>
       </c>
       <c r="H56" s="13">
         <v>39814</v>
       </c>
       <c r="I56" s="22">
-        <v>-2327</v>
+        <v>-2259</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
@@ -4798,13 +4886,13 @@
         <v>39904</v>
       </c>
       <c r="F57" s="1">
-        <v>-1504</v>
+        <v>-1859.666666666657</v>
       </c>
       <c r="H57" s="13">
         <v>39904</v>
       </c>
       <c r="I57" s="22">
-        <v>-1504</v>
+        <v>-1859.666666666657</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
@@ -4812,13 +4900,13 @@
         <v>39995</v>
       </c>
       <c r="F58" s="1">
-        <v>-764</v>
+        <v>-967.66666666667152</v>
       </c>
       <c r="H58" s="13">
         <v>39995</v>
       </c>
       <c r="I58" s="22">
-        <v>-764</v>
+        <v>-967.66666666667152</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
@@ -4826,13 +4914,13 @@
         <v>40087</v>
       </c>
       <c r="F59" s="1">
-        <v>-456</v>
+        <v>-502.33333333334303</v>
       </c>
       <c r="H59" s="13">
         <v>40087</v>
       </c>
       <c r="I59" s="22">
-        <v>-456</v>
+        <v>-502.33333333334303</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
@@ -4840,13 +4928,13 @@
         <v>40179</v>
       </c>
       <c r="F60" s="1">
-        <v>91</v>
+        <v>-174.33333333332848</v>
       </c>
       <c r="H60" s="13">
         <v>40179</v>
       </c>
       <c r="I60" s="22">
-        <v>91</v>
+        <v>-174.33333333332848</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
@@ -4854,13 +4942,13 @@
         <v>40269</v>
       </c>
       <c r="F61" s="1">
-        <v>632</v>
+        <v>634.66666666667152</v>
       </c>
       <c r="H61" s="13">
         <v>40269</v>
       </c>
       <c r="I61" s="22">
-        <v>632</v>
+        <v>634.66666666667152</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
@@ -4868,13 +4956,13 @@
         <v>40360</v>
       </c>
       <c r="F62" s="1">
-        <v>-154</v>
+        <v>-21.666666666671517</v>
       </c>
       <c r="H62" s="13">
         <v>40360</v>
       </c>
       <c r="I62" s="22">
-        <v>-154</v>
+        <v>-21.666666666671517</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
@@ -4882,13 +4970,13 @@
         <v>40452</v>
       </c>
       <c r="F63" s="1">
-        <v>465</v>
+        <v>330.33333333332848</v>
       </c>
       <c r="H63" s="13">
         <v>40452</v>
       </c>
       <c r="I63" s="22">
-        <v>465</v>
+        <v>330.33333333332848</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
@@ -4896,13 +4984,13 @@
         <v>40544</v>
       </c>
       <c r="F64" s="1">
-        <v>466</v>
+        <v>328.33333333334303</v>
       </c>
       <c r="H64" s="13">
         <v>40544</v>
       </c>
       <c r="I64" s="22">
-        <v>466</v>
+        <v>328.33333333334303</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
@@ -4910,13 +4998,13 @@
         <v>40634</v>
       </c>
       <c r="F65" s="1">
-        <v>651</v>
+        <v>687.33333333332848</v>
       </c>
       <c r="H65" s="13">
         <v>40634</v>
       </c>
       <c r="I65" s="22">
-        <v>651</v>
+        <v>687.33333333332848</v>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
@@ -4924,13 +5012,13 @@
         <v>40725</v>
       </c>
       <c r="F66" s="1">
-        <v>419</v>
+        <v>412.66666666665697</v>
       </c>
       <c r="H66" s="13">
         <v>40725</v>
       </c>
       <c r="I66" s="22">
-        <v>419</v>
+        <v>412.66666666665697</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
@@ -4938,13 +5026,13 @@
         <v>40817</v>
       </c>
       <c r="F67" s="1">
-        <v>538</v>
+        <v>556.66666666668607</v>
       </c>
       <c r="H67" s="13">
         <v>40817</v>
       </c>
       <c r="I67" s="22">
-        <v>538</v>
+        <v>556.66666666668607</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
@@ -4952,13 +5040,13 @@
         <v>40909</v>
       </c>
       <c r="F68" s="1">
-        <v>856</v>
+        <v>787.33333333331393</v>
       </c>
       <c r="H68" s="13">
         <v>40909</v>
       </c>
       <c r="I68" s="22">
-        <v>856</v>
+        <v>787.33333333331393</v>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
@@ -4966,13 +5054,13 @@
         <v>41000</v>
       </c>
       <c r="F69" s="1">
-        <v>255</v>
+        <v>420.33333333334303</v>
       </c>
       <c r="H69" s="13">
         <v>41000</v>
       </c>
       <c r="I69" s="22">
-        <v>255</v>
+        <v>420.33333333334303</v>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
@@ -4980,13 +5068,13 @@
         <v>41091</v>
       </c>
       <c r="F70" s="1">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="H70" s="13">
         <v>41091</v>
       </c>
       <c r="I70" s="22">
-        <v>511</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
@@ -4994,13 +5082,13 @@
         <v>41183</v>
       </c>
       <c r="F71" s="1">
-        <v>554</v>
+        <v>524.66666666665697</v>
       </c>
       <c r="H71" s="13">
         <v>41183</v>
       </c>
       <c r="I71" s="22">
-        <v>554</v>
+        <v>524.66666666665697</v>
       </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
@@ -5008,13 +5096,13 @@
         <v>41275</v>
       </c>
       <c r="F72" s="1">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="H72" s="13">
         <v>41275</v>
       </c>
       <c r="I72" s="22">
-        <v>608</v>
+        <v>634</v>
       </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
@@ -5022,13 +5110,13 @@
         <v>41365</v>
       </c>
       <c r="F73" s="1">
-        <v>594</v>
+        <v>584.66666666668607</v>
       </c>
       <c r="H73" s="13">
         <v>41365</v>
       </c>
       <c r="I73" s="22">
-        <v>594</v>
+        <v>584.66666666668607</v>
       </c>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.25">
@@ -5036,13 +5124,13 @@
         <v>41456</v>
       </c>
       <c r="F74" s="1">
-        <v>541</v>
+        <v>530.33333333331393</v>
       </c>
       <c r="H74" s="13">
         <v>41456</v>
       </c>
       <c r="I74" s="22">
-        <v>541</v>
+        <v>530.33333333331393</v>
       </c>
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.25">
@@ -5050,13 +5138,13 @@
         <v>41548</v>
       </c>
       <c r="F75" s="1">
-        <v>558</v>
+        <v>629.33333333334303</v>
       </c>
       <c r="H75" s="13">
         <v>41548</v>
       </c>
       <c r="I75" s="22">
-        <v>558</v>
+        <v>629.33333333334303</v>
       </c>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.25">
@@ -5064,13 +5152,13 @@
         <v>41640</v>
       </c>
       <c r="F76" s="1">
-        <v>595</v>
+        <v>504.33333333334303</v>
       </c>
       <c r="H76" s="13">
         <v>41640</v>
       </c>
       <c r="I76" s="22">
-        <v>595</v>
+        <v>504.33333333334303</v>
       </c>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.25">
@@ -5078,13 +5166,13 @@
         <v>41730</v>
       </c>
       <c r="F77" s="1">
-        <v>869</v>
+        <v>803.66666666665697</v>
       </c>
       <c r="H77" s="13">
         <v>41730</v>
       </c>
       <c r="I77" s="22">
-        <v>869</v>
+        <v>803.66666666665697</v>
       </c>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.25">
@@ -5092,13 +5180,13 @@
         <v>41821</v>
       </c>
       <c r="F78" s="1">
-        <v>729</v>
+        <v>750.33333333334303</v>
       </c>
       <c r="H78" s="13">
         <v>41821</v>
       </c>
       <c r="I78" s="22">
-        <v>729</v>
+        <v>750.33333333334303</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.25">
@@ -5106,13 +5194,13 @@
         <v>41913</v>
       </c>
       <c r="F79" s="1">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="H79" s="13">
         <v>41913</v>
       </c>
       <c r="I79" s="22">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="80" spans="5:9" x14ac:dyDescent="0.25">
@@ -5120,13 +5208,13 @@
         <v>42005</v>
       </c>
       <c r="F80" s="1">
-        <v>533</v>
+        <v>671</v>
       </c>
       <c r="H80" s="13">
         <v>42005</v>
       </c>
       <c r="I80" s="22">
-        <v>533</v>
+        <v>671</v>
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.25">
@@ -5134,13 +5222,13 @@
         <v>42095</v>
       </c>
       <c r="F81" s="1">
-        <v>789</v>
+        <v>700.33333333331393</v>
       </c>
       <c r="H81" s="13">
         <v>42095</v>
       </c>
       <c r="I81" s="22">
-        <v>789</v>
+        <v>700.33333333331393</v>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
@@ -5148,13 +5236,13 @@
         <v>42186</v>
       </c>
       <c r="F82" s="1">
-        <v>582</v>
+        <v>663.33333333334303</v>
       </c>
       <c r="H82" s="13">
         <v>42186</v>
       </c>
       <c r="I82" s="22">
-        <v>582</v>
+        <v>663.33333333334303</v>
       </c>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.25">
@@ -5162,13 +5250,13 @@
         <v>42278</v>
       </c>
       <c r="F83" s="1">
-        <v>816</v>
+        <v>700</v>
       </c>
       <c r="H83" s="13">
         <v>42278</v>
       </c>
       <c r="I83" s="22">
-        <v>816</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
@@ -5176,13 +5264,13 @@
         <v>42370</v>
       </c>
       <c r="F84" s="1">
-        <v>557</v>
+        <v>589.33333333334303</v>
       </c>
       <c r="H84" s="13">
         <v>42370</v>
       </c>
       <c r="I84" s="22">
-        <v>557</v>
+        <v>589.33333333334303</v>
       </c>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.25">
@@ -5190,13 +5278,13 @@
         <v>42461</v>
       </c>
       <c r="F85" s="1">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="H85" s="13">
         <v>42461</v>
       </c>
       <c r="I85" s="22">
-        <v>496</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.25">
@@ -5204,13 +5292,13 @@
         <v>42552</v>
       </c>
       <c r="F86" s="1">
-        <v>803</v>
+        <v>748.33333333331393</v>
       </c>
       <c r="H86" s="13">
         <v>42552</v>
       </c>
       <c r="I86" s="22">
-        <v>803</v>
+        <v>748.33333333331393</v>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.25">
@@ -5218,13 +5306,13 @@
         <v>42644</v>
       </c>
       <c r="F87" s="1">
-        <v>462</v>
+        <v>516.33333333334303</v>
       </c>
       <c r="H87" s="13">
         <v>42644</v>
       </c>
       <c r="I87" s="22">
-        <v>462</v>
+        <v>516.33333333334303</v>
       </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.25">
@@ -5232,13 +5320,13 @@
         <v>42736</v>
       </c>
       <c r="F88" s="1">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="H88" s="13">
         <v>42736</v>
       </c>
       <c r="I88" s="22">
-        <v>545</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.25">
@@ -5246,13 +5334,13 @@
         <v>42826</v>
       </c>
       <c r="F89" s="1">
-        <v>625</v>
+        <v>577.33333333334303</v>
       </c>
       <c r="H89" s="13">
         <v>42826</v>
       </c>
       <c r="I89" s="22">
-        <v>625</v>
+        <v>577.33333333334303</v>
       </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.25">
@@ -5260,13 +5348,13 @@
         <v>42917</v>
       </c>
       <c r="F90" s="1">
-        <v>427</v>
+        <v>518.33333333331393</v>
       </c>
       <c r="H90" s="13">
         <v>42917</v>
       </c>
       <c r="I90" s="22">
-        <v>427</v>
+        <v>518.33333333331393</v>
       </c>
     </row>
     <row r="91" spans="5:9" x14ac:dyDescent="0.25">
@@ -5274,13 +5362,13 @@
         <v>43009</v>
       </c>
       <c r="F91" s="1">
-        <v>517</v>
+        <v>447.33333333334303</v>
       </c>
       <c r="H91" s="13">
         <v>43009</v>
       </c>
       <c r="I91" s="22">
-        <v>517</v>
+        <v>447.33333333334303</v>
       </c>
     </row>
     <row r="92" spans="5:9" x14ac:dyDescent="0.25">
@@ -5288,13 +5376,13 @@
         <v>43101</v>
       </c>
       <c r="F92" s="1">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="H92" s="13">
         <v>43101</v>
       </c>
       <c r="I92" s="22">
-        <v>760</v>
+        <v>660</v>
       </c>
     </row>
     <row r="93" spans="5:9" x14ac:dyDescent="0.25">
@@ -5302,13 +5390,13 @@
         <v>43191</v>
       </c>
       <c r="F93" s="1">
-        <v>695</v>
+        <v>746</v>
       </c>
       <c r="H93" s="13">
         <v>43191</v>
       </c>
       <c r="I93" s="22">
-        <v>695</v>
+        <v>746</v>
       </c>
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.25">
@@ -5316,13 +5404,13 @@
         <v>43282</v>
       </c>
       <c r="F94" s="1">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="H94" s="13">
         <v>43282</v>
       </c>
       <c r="I94" s="22">
-        <v>342</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.25">
@@ -5330,13 +5418,13 @@
         <v>43374</v>
       </c>
       <c r="F95" s="1">
-        <v>495</v>
+        <v>406.66666666665697</v>
       </c>
       <c r="H95" s="13">
         <v>43374</v>
       </c>
       <c r="I95" s="22">
-        <v>495</v>
+        <v>406.66666666665697</v>
       </c>
     </row>
     <row r="96" spans="5:9" x14ac:dyDescent="0.25">
@@ -5344,13 +5432,13 @@
         <v>43466</v>
       </c>
       <c r="F96" s="1">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="H96" s="13">
         <v>43466</v>
       </c>
       <c r="I96" s="22">
-        <v>527</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.25">
@@ -5358,13 +5446,13 @@
         <v>43556</v>
       </c>
       <c r="F97" s="1">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="H97" s="13">
         <v>43556</v>
       </c>
       <c r="I97" s="22">
-        <v>495</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.25">
@@ -5372,13 +5460,13 @@
         <v>43647</v>
       </c>
       <c r="F98" s="1">
-        <v>401</v>
+        <v>351.33333333334303</v>
       </c>
       <c r="H98" s="13">
         <v>43647</v>
       </c>
       <c r="I98" s="22">
-        <v>401</v>
+        <v>351.33333333334303</v>
       </c>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.25">
@@ -5386,13 +5474,13 @@
         <v>43739</v>
       </c>
       <c r="F99" s="1">
-        <v>545</v>
+        <v>489.66666666665697</v>
       </c>
       <c r="H99" s="13">
         <v>43739</v>
       </c>
       <c r="I99" s="22">
-        <v>545</v>
+        <v>489.66666666665697</v>
       </c>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.25">
@@ -5400,13 +5488,13 @@
         <v>43831</v>
       </c>
       <c r="F100" s="1">
-        <v>-783</v>
+        <v>307.66666666668607</v>
       </c>
       <c r="H100" s="13">
         <v>43831</v>
       </c>
       <c r="I100" s="22">
-        <v>-783</v>
+        <v>307.66666666668607</v>
       </c>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.25">
@@ -5414,13 +5502,13 @@
         <v>43922</v>
       </c>
       <c r="F101" s="1">
-        <v>-13346</v>
+        <v>-18103.333333333343</v>
       </c>
       <c r="H101" s="13">
         <v>43922</v>
       </c>
       <c r="I101" s="22">
-        <v>-13346</v>
+        <v>-18103.333333333343</v>
       </c>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
@@ -5428,13 +5516,13 @@
         <v>44013</v>
       </c>
       <c r="F102" s="1">
-        <v>3972</v>
+        <v>6688.333333333343</v>
       </c>
       <c r="H102" s="13">
         <v>44013</v>
       </c>
       <c r="I102" s="22">
-        <v>3972</v>
+        <v>6688.333333333343</v>
       </c>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.25">
@@ -5442,13 +5530,13 @@
         <v>44105</v>
       </c>
       <c r="F103" s="1">
-        <v>865</v>
+        <v>1998.3333333333139</v>
       </c>
       <c r="H103" s="13">
         <v>44105</v>
       </c>
       <c r="I103" s="22">
-        <v>865</v>
+        <v>1998.3333333333139</v>
       </c>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.25">
@@ -5456,13 +5544,13 @@
         <v>44197</v>
       </c>
       <c r="F104" s="1">
-        <v>1934</v>
+        <v>1262.333333333343</v>
       </c>
       <c r="H104" s="13">
         <v>44197</v>
       </c>
       <c r="I104" s="22">
-        <v>1934</v>
+        <v>1262.333333333343</v>
       </c>
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.25">
@@ -5470,13 +5558,13 @@
         <v>44287</v>
       </c>
       <c r="F105" s="1">
-        <v>1267</v>
+        <v>1452.666666666657</v>
       </c>
       <c r="H105" s="13">
         <v>44287</v>
       </c>
       <c r="I105" s="22">
-        <v>1267</v>
+        <v>1452.666666666657</v>
       </c>
     </row>
     <row r="106" spans="5:9" x14ac:dyDescent="0.25">
@@ -5484,13 +5572,13 @@
         <v>44378</v>
       </c>
       <c r="F106" s="1">
-        <v>1630</v>
+        <v>1695.333333333343</v>
       </c>
       <c r="H106" s="13">
         <v>44378</v>
       </c>
       <c r="I106" s="22">
-        <v>1630</v>
+        <v>1695.333333333343</v>
       </c>
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.25">
@@ -5498,13 +5586,13 @@
         <v>44470</v>
       </c>
       <c r="F107" s="1">
-        <v>1912</v>
+        <v>1759.333333333343</v>
       </c>
       <c r="H107" s="13">
         <v>44470</v>
       </c>
       <c r="I107" s="22">
-        <v>1912</v>
+        <v>1759.333333333343</v>
       </c>
     </row>
     <row r="108" spans="5:9" x14ac:dyDescent="0.25">
@@ -5512,13 +5600,13 @@
         <v>44562</v>
       </c>
       <c r="F108" s="1">
-        <v>1616</v>
+        <v>1720.3333333333139</v>
       </c>
       <c r="H108" s="13">
         <v>44562</v>
       </c>
       <c r="I108" s="22">
-        <v>1616</v>
+        <v>1720.3333333333139</v>
       </c>
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.25">
@@ -5526,13 +5614,13 @@
         <v>44652</v>
       </c>
       <c r="F109" s="1">
-        <v>1047</v>
+        <v>1226.333333333343</v>
       </c>
       <c r="H109" s="13">
         <v>44652</v>
       </c>
       <c r="I109" s="22">
-        <v>1047</v>
+        <v>1226.333333333343</v>
       </c>
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.25">
@@ -5540,13 +5628,13 @@
         <v>44743</v>
       </c>
       <c r="F110" s="1">
-        <v>1098</v>
+        <v>1145.333333333343</v>
       </c>
       <c r="H110" s="13">
         <v>44743</v>
       </c>
       <c r="I110" s="22">
-        <v>1098</v>
+        <v>1145.333333333343</v>
       </c>
     </row>
   </sheetData>
@@ -28633,7 +28721,7 @@
         <f>SUM(,)</f>
         <v>0</v>
       </c>
-      <c r="B1" t="e" cm="1" vm="1">
+      <c r="B1" t="e" cm="1" vm="3">
         <f t="array" aca="1" ref="B1" ca="1">{1,2;3,4}</f>
         <v>#VALUE!</v>
       </c>
